--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757769.4713629958</v>
+        <v>686860.4451921757</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10333101.14322676</v>
+        <v>10326580.93019922</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7415297.050778591</v>
+        <v>7417528.253554629</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="F2" t="n">
-        <v>81.61928733384138</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="X2" t="n">
-        <v>92.66494928910245</v>
+        <v>44.63627908943801</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.8073893195606</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -782,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>20.61298734065841</v>
       </c>
       <c r="R3" t="n">
-        <v>84.56947841277967</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>89.71475821016418</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.68779966354607</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>18.59473170946467</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.61164031771685</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.54245901085116</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="W5" t="n">
-        <v>82.52021394365137</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>93.68779966354607</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>93.68779966354607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.49227226221126</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="H6" t="n">
-        <v>77.69341728228453</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.07523166978226</v>
+        <v>9.256558775821446</v>
       </c>
       <c r="R6" t="n">
-        <v>84.43936465513067</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>93.68779966354607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>93.68779966354607</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.625377488803558</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="G8" t="n">
-        <v>29.49336029176023</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="H8" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>132.5004355798272</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.382090555273692</v>
+        <v>7.091680627731961</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.9757828529239987</v>
       </c>
       <c r="R8" t="n">
-        <v>88.53474702921046</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.3624145151981</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>127.4298779958539</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="X9" t="n">
-        <v>121.7191014186026</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.1915320374689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.15365107438001</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>19.59281863505174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>183.2066400136039</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>242.2833665606099</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>95.87413436878403</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.2769799447068</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>252.3685669536097</v>
+        <v>185.6279506608914</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>366.5506527846404</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>77.94285947935246</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>83.75104981043059</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94.50081326185513</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>36.29946757904884</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.6688608772143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>137.5750138932992</v>
@@ -1745,16 +1745,16 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V15" t="n">
-        <v>62.09304949854853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.41077979396504</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>185.6279506608914</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>115.4634927802251</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H17" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U17" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V17" t="n">
-        <v>172.3818194402395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>97.1706988254226</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8205739680685</v>
+        <v>146.5968089274196</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>97.8258205902314</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>220.0133056736543</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>267.3251163870943</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>155.2018086397054</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>59.57466678973169</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7632183107638</v>
+        <v>141.1922871149087</v>
       </c>
       <c r="U21" t="n">
         <v>225.8205739680685</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>53.5618045627212</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>104.9508226271751</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>5.732180395782861</v>
       </c>
       <c r="U23" t="n">
-        <v>237.743922003781</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>127.675255927006</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>221.704851569072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>177.6065387483023</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>88.58584547962737</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>204.5947623500352</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.9601371840612</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>134.9994691657081</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.06025053532223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>54.45803047044404</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>11.91782433534589</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>186.8250998946398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3122,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
         <v>89.59687541851116</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>73.72789960985351</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>117.7126336312584</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>141.1762660121929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>47.62603538969997</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>106.4735778903236</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>195.3024407805241</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>129.6194020613852</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.5889589693331</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>118.8376584678373</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>99.59933623926837</v>
+        <v>330.1313724127989</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.98798283824603</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>189.2133623690047</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>319.7924144542517</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>282.2466408863541</v>
       </c>
       <c r="X46" t="n">
-        <v>160.8915086215183</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.4578794006472</v>
+        <v>160.7588683748559</v>
       </c>
       <c r="C2" t="n">
-        <v>89.85692052276598</v>
+        <v>160.7588683748559</v>
       </c>
       <c r="D2" t="n">
-        <v>89.85692052276598</v>
+        <v>160.7588683748559</v>
       </c>
       <c r="E2" t="n">
-        <v>89.85692052276598</v>
+        <v>83.44121332731075</v>
       </c>
       <c r="F2" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="G2" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="H2" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="I2" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="J2" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="K2" t="n">
-        <v>21.18357364821467</v>
+        <v>8.332548426264072</v>
       </c>
       <c r="L2" t="n">
-        <v>75.16870670940388</v>
+        <v>47.97475789320507</v>
       </c>
       <c r="M2" t="n">
-        <v>166.9070065056153</v>
+        <v>123.7537916053041</v>
       </c>
       <c r="N2" t="n">
-        <v>258.6453063018267</v>
+        <v>199.5328253174031</v>
       </c>
       <c r="O2" t="n">
-        <v>337.6943058037301</v>
+        <v>263.2680959550863</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="R2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="S2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="T2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="U2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="V2" t="n">
-        <v>370.6597971564098</v>
+        <v>283.163674017793</v>
       </c>
       <c r="W2" t="n">
-        <v>370.6597971564098</v>
+        <v>205.8460189702479</v>
       </c>
       <c r="X2" t="n">
-        <v>277.0588382785285</v>
+        <v>160.7588683748559</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.4578794006472</v>
+        <v>160.7588683748559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.413195943128196</v>
+        <v>238.0765234224011</v>
       </c>
       <c r="C3" t="n">
-        <v>7.413195943128196</v>
+        <v>238.0765234224011</v>
       </c>
       <c r="D3" t="n">
-        <v>7.413195943128196</v>
+        <v>160.7588683748559</v>
       </c>
       <c r="E3" t="n">
-        <v>7.413195943128196</v>
+        <v>83.44121332731075</v>
       </c>
       <c r="F3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="G3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="H3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="I3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="J3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="K3" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="L3" t="n">
-        <v>43.08143125983032</v>
+        <v>69.96689484960424</v>
       </c>
       <c r="M3" t="n">
-        <v>134.8197310560417</v>
+        <v>145.7459285617033</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5580308522532</v>
+        <v>186.2500274348652</v>
       </c>
       <c r="O3" t="n">
-        <v>317.2247932514014</v>
+        <v>262.0290611469642</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6597971564098</v>
+        <v>306.1779139882789</v>
       </c>
       <c r="Q3" t="n">
-        <v>370.6597971564098</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="R3" t="n">
-        <v>285.2360815879455</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="S3" t="n">
-        <v>191.6351227100642</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="T3" t="n">
-        <v>98.03416383218293</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="U3" t="n">
-        <v>7.413195943128196</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="V3" t="n">
-        <v>7.413195943128196</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="W3" t="n">
-        <v>7.413195943128196</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="X3" t="n">
-        <v>7.413195943128196</v>
+        <v>285.3567146542805</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.413195943128196</v>
+        <v>285.3567146542805</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="C4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="D4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="E4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="F4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="G4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="H4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="I4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="J4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="K4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="L4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="M4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="N4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="O4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="P4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="R4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="S4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="T4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="U4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="V4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="W4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="X4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.413195943128196</v>
+        <v>6.123558279765578</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="C5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="D5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="E5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="I5" t="n">
-        <v>7.495023973083686</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="J5" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="K5" t="n">
-        <v>21.7586442464732</v>
+        <v>32.11753523687541</v>
       </c>
       <c r="L5" t="n">
-        <v>76.3556883291338</v>
+        <v>97.73708609773404</v>
       </c>
       <c r="M5" t="n">
-        <v>168.7748570393633</v>
+        <v>202.4209174083929</v>
       </c>
       <c r="N5" t="n">
-        <v>261.5257787062739</v>
+        <v>313.4124509320673</v>
       </c>
       <c r="O5" t="n">
-        <v>341.2281066185438</v>
+        <v>404.8833474416795</v>
       </c>
       <c r="P5" t="n">
-        <v>374.7511986541843</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="Q5" t="n">
-        <v>374.7511986541843</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="R5" t="n">
-        <v>374.7511986541843</v>
+        <v>432.6813068454349</v>
       </c>
       <c r="S5" t="n">
-        <v>374.7511986541843</v>
+        <v>367.4869038041711</v>
       </c>
       <c r="T5" t="n">
-        <v>374.7511986541843</v>
+        <v>254.2417925668746</v>
       </c>
       <c r="U5" t="n">
-        <v>374.7511986541843</v>
+        <v>140.996681329578</v>
       </c>
       <c r="V5" t="n">
-        <v>374.7511986541843</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="W5" t="n">
-        <v>291.3974471959506</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="X5" t="n">
-        <v>196.7633061216616</v>
+        <v>27.75157009228143</v>
       </c>
       <c r="Y5" t="n">
-        <v>102.1291650473727</v>
+        <v>27.75157009228143</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.97322324811857</v>
+        <v>348.7043465218836</v>
       </c>
       <c r="C6" t="n">
-        <v>85.97322324811857</v>
+        <v>348.7043465218836</v>
       </c>
       <c r="D6" t="n">
-        <v>85.97322324811857</v>
+        <v>348.7043465218836</v>
       </c>
       <c r="E6" t="n">
-        <v>85.97322324811857</v>
+        <v>235.459235284587</v>
       </c>
       <c r="F6" t="n">
-        <v>85.97322324811857</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G6" t="n">
-        <v>85.97322324811857</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I6" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="J6" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="K6" t="n">
-        <v>7.495023973083686</v>
+        <v>36.2216681853455</v>
       </c>
       <c r="L6" t="n">
-        <v>82.34767467643863</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M6" t="n">
-        <v>137.0087153981644</v>
+        <v>230.1803012028976</v>
       </c>
       <c r="N6" t="n">
-        <v>229.7596370650751</v>
+        <v>341.1718347265719</v>
       </c>
       <c r="O6" t="n">
-        <v>320.9200204165454</v>
+        <v>441.2239361578219</v>
       </c>
       <c r="P6" t="n">
-        <v>374.7511986541843</v>
+        <v>448.4506404996944</v>
       </c>
       <c r="Q6" t="n">
-        <v>360.5337929271315</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="R6" t="n">
-        <v>275.2415053966965</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="S6" t="n">
-        <v>180.6073643224075</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="T6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="U6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="V6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="W6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="X6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
       <c r="Y6" t="n">
-        <v>85.97322324811857</v>
+        <v>439.1005811301778</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="K7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="L7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="M7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="N7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="O7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="P7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="R7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="S7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="T7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="U7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="V7" t="n">
-        <v>7.495023973083686</v>
+        <v>12.63101027343183</v>
       </c>
       <c r="W7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="X7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.495023973083686</v>
+        <v>8.969012809993888</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.7496846481794</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="C8" t="n">
-        <v>323.7496846481794</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="D8" t="n">
-        <v>323.7496846481794</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="E8" t="n">
-        <v>323.7496846481794</v>
+        <v>311.0103700789526</v>
       </c>
       <c r="F8" t="n">
-        <v>323.7496846481794</v>
+        <v>164.8738481890109</v>
       </c>
       <c r="G8" t="n">
-        <v>293.9584116261993</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="H8" t="n">
-        <v>154.3710055277459</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="I8" t="n">
-        <v>20.53218170973862</v>
+        <v>18.7373262990692</v>
       </c>
       <c r="J8" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K8" t="n">
-        <v>47.87313233956303</v>
+        <v>51.79022575657168</v>
       </c>
       <c r="L8" t="n">
-        <v>130.4506428787743</v>
+        <v>138.5837562783352</v>
       </c>
       <c r="M8" t="n">
-        <v>254.0034717806221</v>
+        <v>266.8277197508551</v>
       </c>
       <c r="N8" t="n">
-        <v>384.1693230034405</v>
+        <v>401.7606130061291</v>
       </c>
       <c r="O8" t="n">
-        <v>493.7459839967182</v>
+        <v>515.8386566132575</v>
       </c>
       <c r="P8" t="n">
-        <v>552.7661281498757</v>
+        <v>578.7006266841692</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.7661281498757</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="R8" t="n">
-        <v>463.3370907466328</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="S8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="T8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="U8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="V8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="W8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="X8" t="n">
-        <v>323.7496846481794</v>
+        <v>577.7149874387914</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.7496846481794</v>
+        <v>457.1468919688942</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.6427286614509</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J9" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K9" t="n">
-        <v>47.59232956616113</v>
+        <v>50.41925783498755</v>
       </c>
       <c r="L9" t="n">
-        <v>143.0433855837869</v>
+        <v>148.9740250987618</v>
       </c>
       <c r="M9" t="n">
-        <v>273.7871339931662</v>
+        <v>283.3396581397943</v>
       </c>
       <c r="N9" t="n">
-        <v>367.0874629620191</v>
+        <v>426.5680632441262</v>
       </c>
       <c r="O9" t="n">
-        <v>480.8193379422796</v>
+        <v>543.7009487075663</v>
       </c>
       <c r="P9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="Q9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="R9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="S9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="T9" t="n">
-        <v>552.7661281498756</v>
+        <v>578.700626684169</v>
       </c>
       <c r="U9" t="n">
-        <v>552.7661281498756</v>
+        <v>432.5641047942273</v>
       </c>
       <c r="V9" t="n">
-        <v>552.7661281498756</v>
+        <v>303.8470563135668</v>
       </c>
       <c r="W9" t="n">
-        <v>552.7661281498756</v>
+        <v>157.7105344236251</v>
       </c>
       <c r="X9" t="n">
-        <v>429.8175408583578</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y9" t="n">
-        <v>290.2301347599044</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="C10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="D10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="E10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="F10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="G10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="H10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="I10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="J10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="K10" t="n">
-        <v>11.05532256299751</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="L10" t="n">
-        <v>11.05532256299751</v>
+        <v>13.35570305153742</v>
       </c>
       <c r="M10" t="n">
-        <v>14.31360557717602</v>
+        <v>18.49252890534889</v>
       </c>
       <c r="N10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="O10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="P10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="R10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="S10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="T10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="U10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="V10" t="n">
-        <v>25.35193980984601</v>
+        <v>31.36473842767504</v>
       </c>
       <c r="W10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="X10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.35193980984601</v>
+        <v>11.57401253368338</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1983.4026147697</v>
+        <v>1473.382518524589</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.440097829288</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D11" t="n">
-        <v>1256.174399222538</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E11" t="n">
-        <v>870.3861466242934</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F11" t="n">
         <v>459.4002418346859</v>
       </c>
       <c r="G11" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H11" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J11" t="n">
-        <v>152.5078184301898</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T11" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U11" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="V11" t="n">
-        <v>2168.459826904653</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="W11" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524589</v>
       </c>
       <c r="X11" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524589</v>
       </c>
       <c r="Y11" t="n">
-        <v>2168.459826904653</v>
+        <v>1473.382518524589</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>672.5286484590418</v>
+        <v>299.4492115120174</v>
       </c>
       <c r="C12" t="n">
-        <v>498.0756191779149</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="D12" t="n">
-        <v>349.1412095166636</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E12" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F12" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G12" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J12" t="n">
-        <v>89.55356510562319</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K12" t="n">
-        <v>246.644831850452</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L12" t="n">
-        <v>504.1959674104396</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M12" t="n">
-        <v>824.1028628789489</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N12" t="n">
-        <v>1166.885386873581</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O12" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P12" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q12" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R12" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S12" t="n">
-        <v>1745.745249409541</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T12" t="n">
-        <v>1745.745249409541</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U12" t="n">
-        <v>1745.745249409541</v>
+        <v>1204.450475442448</v>
       </c>
       <c r="V12" t="n">
-        <v>1510.593141177798</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="W12" t="n">
-        <v>1256.355784449597</v>
+        <v>715.0610104825041</v>
       </c>
       <c r="X12" t="n">
-        <v>1048.504284244064</v>
+        <v>507.2095102769713</v>
       </c>
       <c r="Y12" t="n">
-        <v>840.7439854791098</v>
+        <v>299.4492115120174</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K13" t="n">
-        <v>92.71685897981526</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L13" t="n">
-        <v>185.7706748018942</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M13" t="n">
-        <v>287.1411594927333</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N13" t="n">
-        <v>393.9588065377462</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O13" t="n">
-        <v>472.3091036033661</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P13" t="n">
-        <v>520.2893470405993</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q13" t="n">
-        <v>497.4664265514523</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R13" t="n">
-        <v>497.4664265514523</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S13" t="n">
-        <v>298.2869409356787</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T13" t="n">
-        <v>298.2869409356787</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U13" t="n">
-        <v>43.36919653809306</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="V13" t="n">
-        <v>43.36919653809306</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.7700094231265</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="C14" t="n">
-        <v>350.7700094231265</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="D14" t="n">
-        <v>350.7700094231265</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E14" t="n">
-        <v>350.7700094231265</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F14" t="n">
-        <v>350.7700094231265</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G14" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H14" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I14" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J14" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K14" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L14" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N14" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O14" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q14" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R14" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S14" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T14" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U14" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V14" t="n">
-        <v>1837.396939561082</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="W14" t="n">
-        <v>1484.628284290968</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="X14" t="n">
-        <v>1111.162526029888</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="Y14" t="n">
-        <v>721.0231940540764</v>
+        <v>1625.948503628827</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5261380428188</v>
+        <v>339.0853746974822</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0731087616919</v>
+        <v>164.6323454163552</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1386991004406</v>
+        <v>164.6323454163552</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9012440949851</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3666861218701</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="G15" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="H15" t="n">
-        <v>80.03532540581917</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J15" t="n">
-        <v>89.55356510562319</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K15" t="n">
-        <v>246.644831850452</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L15" t="n">
-        <v>504.1959674104396</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M15" t="n">
-        <v>824.1028628789489</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N15" t="n">
-        <v>1166.885386873581</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O15" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P15" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q15" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R15" t="n">
-        <v>1734.238298972665</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S15" t="n">
-        <v>1595.273638474383</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T15" t="n">
-        <v>1400.563316948359</v>
+        <v>1432.552065309184</v>
       </c>
       <c r="U15" t="n">
-        <v>1172.461727081623</v>
+        <v>1204.450475442448</v>
       </c>
       <c r="V15" t="n">
-        <v>1109.741475062887</v>
+        <v>969.2983672107057</v>
       </c>
       <c r="W15" t="n">
-        <v>1109.741475062887</v>
+        <v>715.0610104825041</v>
       </c>
       <c r="X15" t="n">
-        <v>1109.741475062887</v>
+        <v>715.0610104825041</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.741475062887</v>
+        <v>507.3007117175502</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G16" t="n">
-        <v>303.6661428091322</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H16" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I16" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J16" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K16" t="n">
-        <v>92.71685897981524</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L16" t="n">
-        <v>185.7706748018942</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M16" t="n">
-        <v>287.1411594927333</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N16" t="n">
-        <v>393.9588065377462</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O16" t="n">
-        <v>472.3091036033661</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P16" t="n">
-        <v>520.2893470405993</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q16" t="n">
-        <v>497.4664265514523</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R16" t="n">
-        <v>471.7989722141139</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S16" t="n">
-        <v>471.7989722141139</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T16" t="n">
-        <v>471.7989722141139</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U16" t="n">
-        <v>471.7989722141139</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="V16" t="n">
-        <v>471.7989722141139</v>
+        <v>332.7863665750538</v>
       </c>
       <c r="W16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.7989722141139</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1177.786959509327</v>
+        <v>987.0159373113895</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.786959509327</v>
+        <v>987.0159373113895</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.786959509327</v>
+        <v>987.0159373113895</v>
       </c>
       <c r="E17" t="n">
-        <v>1177.786959509327</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F17" t="n">
-        <v>766.8010547197192</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G17" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H17" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J17" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K17" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L17" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711885</v>
       </c>
       <c r="M17" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N17" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O17" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P17" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q17" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R17" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S17" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T17" t="n">
-        <v>1958.285829056568</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U17" t="n">
-        <v>1704.678664719077</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V17" t="n">
-        <v>1530.555614779441</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="W17" t="n">
-        <v>1177.786959509327</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="X17" t="n">
-        <v>1177.786959509327</v>
+        <v>1373.615777375511</v>
       </c>
       <c r="Y17" t="n">
-        <v>1177.786959509327</v>
+        <v>1373.615777375511</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>464.9088565162518</v>
+        <v>525.9940904859269</v>
       </c>
       <c r="C18" t="n">
-        <v>290.4558272351247</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D18" t="n">
-        <v>141.5214175738735</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E18" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F18" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G18" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H18" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I18" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J18" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K18" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L18" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M18" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789503</v>
       </c>
       <c r="N18" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O18" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P18" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q18" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R18" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S18" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="T18" t="n">
-        <v>1766.227047333487</v>
+        <v>1539.527977446643</v>
       </c>
       <c r="U18" t="n">
-        <v>1538.125457466751</v>
+        <v>1391.450392671472</v>
       </c>
       <c r="V18" t="n">
-        <v>1302.973349235008</v>
+        <v>1156.298284439729</v>
       </c>
       <c r="W18" t="n">
-        <v>1048.735992506806</v>
+        <v>902.0609277115277</v>
       </c>
       <c r="X18" t="n">
-        <v>840.8844923012737</v>
+        <v>694.2094275059949</v>
       </c>
       <c r="Y18" t="n">
-        <v>633.1241935363198</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>292.2997961425817</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C19" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J19" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K19" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L19" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M19" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N19" t="n">
-        <v>393.9588065377461</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O19" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P19" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q19" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R19" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S19" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T19" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U19" t="n">
-        <v>520.2893470405991</v>
+        <v>298.0536847439801</v>
       </c>
       <c r="V19" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="W19" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="X19" t="n">
-        <v>292.2997961425817</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y19" t="n">
-        <v>292.2997961425817</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1837.396939561081</v>
+        <v>1239.348663564705</v>
       </c>
       <c r="C20" t="n">
-        <v>1468.434422620669</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="D20" t="n">
-        <v>1110.168724013919</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E20" t="n">
-        <v>724.3804714156747</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F20" t="n">
-        <v>313.3945666260672</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G20" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H20" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I20" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J20" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K20" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L20" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M20" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N20" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O20" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P20" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R20" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S20" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="T20" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642788</v>
       </c>
       <c r="U20" t="n">
-        <v>2168.459826904652</v>
+        <v>1782.718007305297</v>
       </c>
       <c r="V20" t="n">
-        <v>1837.396939561081</v>
+        <v>1625.948503628827</v>
       </c>
       <c r="W20" t="n">
-        <v>1837.396939561081</v>
+        <v>1625.948503628827</v>
       </c>
       <c r="X20" t="n">
-        <v>1837.396939561081</v>
+        <v>1625.948503628827</v>
       </c>
       <c r="Y20" t="n">
-        <v>1837.396939561081</v>
+        <v>1625.948503628827</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>299.4492115120137</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="C21" t="n">
-        <v>299.4492115120137</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D21" t="n">
-        <v>299.4492115120137</v>
+        <v>202.6066515435487</v>
       </c>
       <c r="E21" t="n">
-        <v>140.2117565065582</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F21" t="n">
-        <v>140.2117565065582</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G21" t="n">
-        <v>140.2117565065582</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H21" t="n">
-        <v>80.03532540581915</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I21" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J21" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K21" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L21" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M21" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789503</v>
       </c>
       <c r="N21" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O21" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P21" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q21" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R21" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="S21" t="n">
-        <v>1627.262386835205</v>
+        <v>1627.262386835208</v>
       </c>
       <c r="T21" t="n">
-        <v>1432.552065309181</v>
+        <v>1484.643915001967</v>
       </c>
       <c r="U21" t="n">
-        <v>1204.450475442445</v>
+        <v>1256.542325135231</v>
       </c>
       <c r="V21" t="n">
-        <v>969.2983672107021</v>
+        <v>1021.390216903488</v>
       </c>
       <c r="W21" t="n">
-        <v>715.0610104825005</v>
+        <v>767.1528601752866</v>
       </c>
       <c r="X21" t="n">
-        <v>507.2095102769676</v>
+        <v>559.3013599697538</v>
       </c>
       <c r="Y21" t="n">
-        <v>299.4492115120137</v>
+        <v>351.5410612047999</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.6048588347122</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6048588347122</v>
+        <v>193.4858359504289</v>
       </c>
       <c r="D22" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E22" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F22" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G22" t="n">
-        <v>97.47202942973061</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H22" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I22" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J22" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K22" t="n">
-        <v>92.7168589798152</v>
+        <v>92.7168589798155</v>
       </c>
       <c r="L22" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M22" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927339</v>
       </c>
       <c r="N22" t="n">
-        <v>393.9588065377461</v>
+        <v>393.958806537747</v>
       </c>
       <c r="O22" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033671</v>
       </c>
       <c r="P22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="Q22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="R22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="S22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="T22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="U22" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="V22" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="W22" t="n">
-        <v>265.6048588347122</v>
+        <v>520.2893470406005</v>
       </c>
       <c r="X22" t="n">
-        <v>265.6048588347122</v>
+        <v>414.278415093959</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.6048588347122</v>
+        <v>193.4858359504289</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3319.815740401309</v>
       </c>
       <c r="U23" t="n">
-        <v>2769.192029759092</v>
+        <v>3066.285263675145</v>
       </c>
       <c r="V23" t="n">
-        <v>2769.192029759092</v>
+        <v>2735.222376331575</v>
       </c>
       <c r="W23" t="n">
-        <v>2769.192029759092</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X23" t="n">
-        <v>2395.726271498012</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y23" t="n">
-        <v>2005.586939522201</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6092,28 +6092,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.230932223169</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.230932223169</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>195.4770214089571</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.60582160917</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="W25" t="n">
-        <v>3101.661527094956</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="X25" t="n">
-        <v>2873.671976196939</v>
+        <v>342.3669689068675</v>
       </c>
       <c r="Y25" t="n">
-        <v>2652.879397053409</v>
+        <v>342.3669689068675</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>971.2814123723961</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741518</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6223,13 +6223,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181845</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V28" t="n">
-        <v>666.2025176122977</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W28" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X28" t="n">
-        <v>287.3046955757135</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1853.982617026597</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1485.020100086185</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6496,19 +6496,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X29" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>458.9189605332737</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>518.4459618444147</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>349.5097789165078</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>349.5097789165078</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>349.5097789165078</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>349.5097789165078</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181845</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181845</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181845</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181845</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746544</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796256</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C32" t="n">
-        <v>552.807938939214</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D32" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F32" t="n">
         <v>364.0957168234162</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
@@ -6803,28 +6803,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877106</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U34" t="n">
-        <v>699.1203903877106</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y34" t="n">
-        <v>699.1203903877106</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796247</v>
+        <v>1252.833343223195</v>
       </c>
       <c r="C35" t="n">
-        <v>779.1681669784198</v>
+        <v>883.8708262827838</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1681669784198</v>
+        <v>525.6051276760334</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218339</v>
@@ -6973,16 +6973,16 @@
         <v>2755.806928794323</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919558</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943746</v>
+        <v>1639.433183287317</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C37" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D37" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E37" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F37" t="n">
-        <v>417.6040489720648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218339</v>
@@ -7119,28 +7119,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S37" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T37" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U37" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V37" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>417.6040489720648</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X37" t="n">
-        <v>417.6040489720648</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y37" t="n">
-        <v>417.6040489720648</v>
+        <v>213.4020639300937</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1548.419770374778</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C38" t="n">
-        <v>1548.419770374778</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D38" t="n">
-        <v>1190.154071768027</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7189,7 +7189,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y38" t="n">
-        <v>1548.419770374778</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7277,28 +7277,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>631.469835781224</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>631.469835781224</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>481.3531963688882</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>333.4401027864951</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>186.5501552885848</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7365,19 +7365,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V40" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W40" t="n">
-        <v>294.5016673302007</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X40" t="n">
-        <v>66.5121164321834</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.5121164321834</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.7704558796261</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C41" t="n">
-        <v>821.1650657389509</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D41" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,7 +7423,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.370295943748</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2844.817070561641</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C43" t="n">
-        <v>2675.880887633734</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D43" t="n">
-        <v>2525.764248221398</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>3325.605821609171</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>3133.919937435997</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>3133.919937435997</v>
+        <v>865.8247324870306</v>
       </c>
       <c r="U43" t="n">
-        <v>2844.817070561641</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="V43" t="n">
-        <v>2844.817070561641</v>
+        <v>576.7218656126742</v>
       </c>
       <c r="W43" t="n">
-        <v>2844.817070561641</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X43" t="n">
-        <v>2844.817070561641</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y43" t="n">
-        <v>2844.817070561641</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1190.154071768027</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.154071768027</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3024.190544682726</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3024.190544682726</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2693.127657339155</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2340.359002069041</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X44" t="n">
-        <v>1966.893243807961</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.753911832149</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7815,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812242</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
   </sheetData>
@@ -22549,28 +22549,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>272.6079424819051</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>305.3858915751921</v>
       </c>
       <c r="F2" t="n">
-        <v>325.2567584078701</v>
+        <v>330.3315672446417</v>
       </c>
       <c r="G2" t="n">
-        <v>413.4631744246258</v>
+        <v>413.5549812247485</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6353766150897</v>
+        <v>321.5755930068456</v>
       </c>
       <c r="I2" t="n">
-        <v>139.5561335235496</v>
+        <v>143.0955151852773</v>
       </c>
       <c r="J2" t="n">
-        <v>24.91528667358025</v>
+        <v>32.70727407548833</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.65357118422313</v>
+        <v>33.56767277096577</v>
       </c>
       <c r="R2" t="n">
-        <v>100.031082829933</v>
+        <v>105.7980417381361</v>
       </c>
       <c r="S2" t="n">
-        <v>167.1010256612667</v>
+        <v>169.1930731190612</v>
       </c>
       <c r="T2" t="n">
-        <v>215.0431621354273</v>
+        <v>215.4450464029641</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1984878605957</v>
+        <v>251.2058324046056</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>272.6964902203433</v>
       </c>
       <c r="X2" t="n">
-        <v>277.0661513893666</v>
+        <v>325.094821589031</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.5729893669511</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>119.7257943303067</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>70.90058706756903</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>81.10060195833123</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>68.52473389631416</v>
       </c>
       <c r="G3" t="n">
-        <v>136.3592641379443</v>
+        <v>136.4083851065194</v>
       </c>
       <c r="H3" t="n">
-        <v>102.729632124056</v>
+        <v>103.2040372679255</v>
       </c>
       <c r="I3" t="n">
-        <v>65.63472101604998</v>
+        <v>67.32594734637505</v>
       </c>
       <c r="J3" t="n">
-        <v>33.84730027516765</v>
+        <v>38.48815459128645</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.34273879062262</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>87.61928732132512</v>
       </c>
       <c r="S3" t="n">
-        <v>60.73615356033687</v>
+        <v>154.3135032964364</v>
       </c>
       <c r="T3" t="n">
-        <v>103.5325490100185</v>
+        <v>196.3954902733335</v>
       </c>
       <c r="U3" t="n">
-        <v>136.1618703823063</v>
+        <v>225.8798602351399</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2069960552505</v>
       </c>
       <c r="H4" t="n">
-        <v>154.8907084131551</v>
+        <v>155.2568482298245</v>
       </c>
       <c r="I4" t="n">
-        <v>130.6355227555884</v>
+        <v>131.873958863505</v>
       </c>
       <c r="J4" t="n">
-        <v>68.65627904547944</v>
+        <v>71.56780190257339</v>
       </c>
       <c r="K4" t="n">
-        <v>33.14412614092821</v>
+        <v>37.92865257961417</v>
       </c>
       <c r="L4" t="n">
-        <v>12.20519387026832</v>
+        <v>18.32774045698743</v>
       </c>
       <c r="M4" t="n">
-        <v>9.577470677924566</v>
+        <v>16.03283760924398</v>
       </c>
       <c r="N4" t="n">
-        <v>1.412844977410117</v>
+        <v>7.714717711557284</v>
       </c>
       <c r="O4" t="n">
-        <v>21.82326264618293</v>
+        <v>27.64406210382684</v>
       </c>
       <c r="P4" t="n">
-        <v>37.92808757638599</v>
+        <v>42.90878708657989</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.40871249605681</v>
+        <v>85.85709066716294</v>
       </c>
       <c r="R4" t="n">
-        <v>140.1909870721275</v>
+        <v>142.0426512165516</v>
       </c>
       <c r="S4" t="n">
-        <v>209.6362282325312</v>
+        <v>210.3539071983341</v>
       </c>
       <c r="T4" t="n">
-        <v>224.4198858246887</v>
+        <v>224.5958425873008</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2762666308614</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.0460419999345</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4592576783313</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H5" t="n">
-        <v>320.5952642371005</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I5" t="n">
-        <v>139.4051331620283</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J5" t="n">
-        <v>24.58285772776168</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.23060664780562</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>99.78504751550685</v>
+        <v>95.35315165846211</v>
       </c>
       <c r="S5" t="n">
-        <v>167.0117728050793</v>
+        <v>100.8615796992701</v>
       </c>
       <c r="T5" t="n">
-        <v>215.0260165785228</v>
+        <v>102.6045092346995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1981745208922</v>
+        <v>139.0798701292611</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452113</v>
       </c>
       <c r="W5" t="n">
-        <v>266.7207547737617</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>276.043301014923</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.5501389925075</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.04091138765608</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047735</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846029</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3571684939245</v>
+        <v>24.20675900740724</v>
       </c>
       <c r="H6" t="n">
-        <v>25.01597533242253</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I6" t="n">
-        <v>65.56256836010589</v>
+        <v>64.26286446312979</v>
       </c>
       <c r="J6" t="n">
-        <v>33.64930787240439</v>
+        <v>30.08282103867673</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.09559288881302</v>
       </c>
       <c r="S6" t="n">
-        <v>59.674377517368</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T6" t="n">
-        <v>102.5012517195478</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8764907211534</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,55 +22956,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1640577677285</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8750878189473</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I7" t="n">
-        <v>130.5826874532986</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J7" t="n">
-        <v>68.53206497476964</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K7" t="n">
-        <v>32.94000426569725</v>
+        <v>29.26310570632464</v>
       </c>
       <c r="L7" t="n">
-        <v>11.94398814667464</v>
+        <v>7.238823902544766</v>
       </c>
       <c r="M7" t="n">
-        <v>9.302065866139969</v>
+        <v>4.341129883412094</v>
       </c>
       <c r="N7" t="n">
-        <v>1.143988676489712</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>21.57493033662963</v>
+        <v>17.1016581299688</v>
       </c>
       <c r="P7" t="n">
-        <v>37.71559638483102</v>
+        <v>33.88793923037926</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.26159460929998</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R7" t="n">
-        <v>140.1119896703362</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S7" t="n">
-        <v>209.6056099512465</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T7" t="n">
-        <v>224.4123789951615</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2739245424511</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>238.0586849924383</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>262.2008890706692</v>
       </c>
       <c r="G8" t="n">
-        <v>383.7867988175496</v>
+        <v>268.578016356852</v>
       </c>
       <c r="H8" t="n">
-        <v>180.5695389796402</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>131.4600546760548</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.889976052385833</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>86.83958259249187</v>
       </c>
       <c r="S8" t="n">
-        <v>24.73903212603307</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
-        <v>214.2420125926312</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1838466353705</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>266.8755241408554</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.34165161239844</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>34.51696695084684</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.2613423114523</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>101.783913431357</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>62.26328970919874</v>
+        <v>61.76616344642424</v>
       </c>
       <c r="J9" t="n">
-        <v>24.59583508015078</v>
+        <v>23.23168261818574</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.843103535259758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>78.4897355363738</v>
+        <v>77.59326173053483</v>
       </c>
       <c r="S9" t="n">
-        <v>151.5822478705202</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T9" t="n">
-        <v>195.802804621287</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8701863670433</v>
+        <v>81.19407977320597</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>105.3707091535713</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.0198264898773</v>
       </c>
       <c r="X9" t="n">
-        <v>84.05388378487486</v>
+        <v>61.09782853243522</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.49116373983546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0837203153539</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.1608148332895</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
-        <v>128.1667211582515</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J10" t="n">
-        <v>62.85220709188542</v>
+        <v>61.99638167634127</v>
       </c>
       <c r="K10" t="n">
-        <v>9.45260190634097</v>
+        <v>22.19986892380261</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,31 +23217,31 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>10.21959661371795</v>
+        <v>8.508606056834793</v>
       </c>
       <c r="P10" t="n">
-        <v>27.99914669036119</v>
+        <v>26.53509868619516</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.53442848364141</v>
+        <v>74.52079753307214</v>
       </c>
       <c r="R10" t="n">
-        <v>136.4997256753837</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S10" t="n">
-        <v>208.2055472585001</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>224.0691189713791</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2695424995943</v>
+        <v>286.2688822253891</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>266.9301797015393</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.5272016498766</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>122.9895252103977</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.0710926941158</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>76.83436461953171</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H12" t="n">
-        <v>94.50081326185513</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I12" t="n">
-        <v>36.29946757904884</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.6688608772143</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S12" t="n">
-        <v>117.2980339485924</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J13" t="n">
-        <v>18.15430933923923</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T13" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>33.86649086210696</v>
+        <v>100.6071071548253</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.18318887884016</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>308.2950791767011</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>73.89403064497036</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>170.7075376508767</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
-        <v>18.15430933923923</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R16" t="n">
-        <v>82.66207147167356</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S16" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T16" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548253</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>266.4668772920367</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I17" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>155.3704390298954</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>60.47438162997834</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H18" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I18" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T18" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>79.22376504064894</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>69.42100050839643</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23913,7 +23913,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J19" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923913</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R19" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S19" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T19" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2350578157167</v>
+        <v>66.22175214206243</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5456184565325</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I20" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>172.5504498304295</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5072338470353</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H21" t="n">
-        <v>34.92614647212346</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.66886087721431</v>
+        <v>31.6688608772142</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>51.57093119585511</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H22" t="n">
-        <v>94.97800679852404</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I22" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J22" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923913</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R22" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S22" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T22" t="n">
         <v>221.3678187343026</v>
@@ -24186,16 +24186,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>120.758832761862</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>198.1857897438373</v>
       </c>
       <c r="U23" t="n">
-        <v>13.25124995512101</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>38.35055233202226</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,19 +24420,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>64.81814676751904</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>229.2695069934092</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24654,10 +24654,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>137.1238099094098</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>150.0882792706478</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>235.2778014719924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>126.965557723706</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>165.0909188057252</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>370.8160173281347</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>167.8579417260432</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>72.70606303671566</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>224.0966257588147</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>334.3043346825618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>59.55223036870458</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>30.40721460851304</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>277.2566436803262</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.6489796867205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>47.1881497911909</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,16 +25605,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>204.7509947629279</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>265.6735555317392</v>
+        <v>35.14151935820865</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>92.44597980832313</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>165.0372986783263</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>14.70460777061547</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>66.4455242018019</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26082,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.276357450236901</v>
       </c>
       <c r="X46" t="n">
-        <v>64.81814676751887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>335249.3307048351</v>
+        <v>318472.0543272143</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>336064.6705605749</v>
+        <v>350749.4278478483</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>372023.63381515</v>
+        <v>377311.0572889816</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632720.5423917633</v>
+        <v>632720.5423917639</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632720.5423917632</v>
+        <v>632720.542391764</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534362</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143678.2845877864</v>
+        <v>136488.0232830917</v>
       </c>
       <c r="C2" t="n">
-        <v>144027.7159545318</v>
+        <v>150321.1833633635</v>
       </c>
       <c r="D2" t="n">
-        <v>159438.7002064927</v>
+        <v>161704.7388381349</v>
       </c>
       <c r="E2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.9467393272</v>
       </c>
       <c r="F2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.9467393273</v>
       </c>
       <c r="G2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.9467393273</v>
       </c>
       <c r="H2" t="n">
-        <v>271165.9467393269</v>
+        <v>271165.9467393273</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="J2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="L2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="M2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="N2" t="n">
         <v>345493.0262371867</v>
-      </c>
-      <c r="M2" t="n">
-        <v>345493.0262371867</v>
-      </c>
-      <c r="N2" t="n">
-        <v>345493.0262371869</v>
       </c>
       <c r="O2" t="n">
         <v>345493.0262371869</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>471995.099248906</v>
+        <v>444586.7849766339</v>
       </c>
       <c r="C3" t="n">
-        <v>1217.643978216664</v>
+        <v>49154.7866934151</v>
       </c>
       <c r="D3" t="n">
-        <v>51978.09670744247</v>
+        <v>38987.52889819881</v>
       </c>
       <c r="E3" t="n">
-        <v>402271.1495231793</v>
+        <v>394942.2080289253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>254625.8275892824</v>
+        <v>254625.8275892814</v>
       </c>
       <c r="J3" t="n">
-        <v>24245.22799179792</v>
+        <v>20027.40353188725</v>
       </c>
       <c r="K3" t="n">
-        <v>263.2489551697876</v>
+        <v>9154.111769197525</v>
       </c>
       <c r="L3" t="n">
-        <v>11263.49413024853</v>
+        <v>8241.274813353748</v>
       </c>
       <c r="M3" t="n">
-        <v>100659.3331261213</v>
+        <v>99043.58793293659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.14558386063692</v>
+        <v>52.68893620422416</v>
       </c>
       <c r="C4" t="n">
-        <v>67.88674744105191</v>
+        <v>81.37067654131206</v>
       </c>
       <c r="D4" t="n">
-        <v>100.654298629581</v>
+        <v>105.5521581027501</v>
       </c>
       <c r="E4" t="n">
-        <v>384.3219252469137</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="F4" t="n">
-        <v>384.3219252469137</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="G4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="H4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469144</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
     </row>
     <row r="5">
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49237.11966583625</v>
+        <v>47759.14971631566</v>
       </c>
       <c r="C5" t="n">
-        <v>49320.54850457128</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="D5" t="n">
-        <v>52997.5821980671</v>
+        <v>53538.12534878444</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587225</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="F5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="G5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="H5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587232</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377621.0799108165</v>
+        <v>-369937.2149125219</v>
       </c>
       <c r="C6" t="n">
-        <v>93421.63672430284</v>
+        <v>36893.7602238089</v>
       </c>
       <c r="D6" t="n">
-        <v>54362.36700235359</v>
+        <v>56247.7138454006</v>
       </c>
       <c r="E6" t="n">
-        <v>-183061.0065649715</v>
+        <v>-183345.4451868802</v>
       </c>
       <c r="F6" t="n">
-        <v>219210.1429582077</v>
+        <v>211596.7628420451</v>
       </c>
       <c r="G6" t="n">
-        <v>219210.1429582078</v>
+        <v>211596.7628420451</v>
       </c>
       <c r="H6" t="n">
-        <v>219210.1429582078</v>
+        <v>211596.7628420452</v>
       </c>
       <c r="I6" t="n">
-        <v>15976.21109750512</v>
+        <v>11902.21571933627</v>
       </c>
       <c r="J6" t="n">
-        <v>246356.8106949895</v>
+        <v>246500.6397767306</v>
       </c>
       <c r="K6" t="n">
-        <v>270338.7897316176</v>
+        <v>257373.9315394203</v>
       </c>
       <c r="L6" t="n">
-        <v>259338.5445565387</v>
+        <v>258286.7684952641</v>
       </c>
       <c r="M6" t="n">
-        <v>169942.705560666</v>
+        <v>167484.4553756813</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867875</v>
+        <v>266528.0433086177</v>
       </c>
       <c r="O6" t="n">
-        <v>270602.0386867874</v>
+        <v>266528.0433086178</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867875</v>
+        <v>266528.0433086178</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>434.7543772336616</v>
       </c>
       <c r="C3" t="n">
-        <v>458.5656094049396</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="D3" t="n">
-        <v>503.116378449036</v>
+        <v>509.8291662011503</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376842</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="F3" t="n">
-        <v>853.7106645376842</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="G3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="H3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="C4" t="n">
-        <v>93.68779966354607</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="D4" t="n">
-        <v>138.1915320374689</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="F4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="G4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="H4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>457.5913187641658</v>
+        <v>434.7543772336616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9742906407737182</v>
+        <v>41.36137396484057</v>
       </c>
       <c r="D3" t="n">
-        <v>44.55076904409646</v>
+        <v>33.71341500264822</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5942860886482</v>
+        <v>343.8814983365348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.0660360556139</v>
+        <v>236.066036055613</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02285037444355</v>
+        <v>35.56818162785387</v>
       </c>
       <c r="D4" t="n">
-        <v>44.50373237392283</v>
+        <v>32.56249654611867</v>
       </c>
       <c r="E4" t="n">
-        <v>403.9234246886944</v>
+        <v>397.4398000551221</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>289.2864986761296</v>
+        <v>289.2864986761284</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706949</v>
       </c>
       <c r="K4" t="n">
-        <v>1.02285037444355</v>
+        <v>35.56818162785399</v>
       </c>
       <c r="L4" t="n">
-        <v>44.50373237392294</v>
+        <v>32.56249654611878</v>
       </c>
       <c r="M4" t="n">
-        <v>403.9234246886942</v>
+        <v>397.4398000551219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="K4" t="n">
-        <v>1.02285037444355</v>
+        <v>35.56818162785387</v>
       </c>
       <c r="L4" t="n">
-        <v>44.50373237392283</v>
+        <v>32.56249654611867</v>
       </c>
       <c r="M4" t="n">
-        <v>403.9234246886944</v>
+        <v>397.4398000551221</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.839563090509208</v>
+        <v>1.747756290386578</v>
       </c>
       <c r="H2" t="n">
-        <v>18.83942550067743</v>
+        <v>17.89920910892155</v>
       </c>
       <c r="I2" t="n">
-        <v>70.91975604685631</v>
+        <v>67.38037438512862</v>
       </c>
       <c r="J2" t="n">
-        <v>156.130617853106</v>
+        <v>148.338630451198</v>
       </c>
       <c r="K2" t="n">
-        <v>233.9993234743608</v>
+        <v>222.3211542232619</v>
       </c>
       <c r="L2" t="n">
-        <v>290.2968524055321</v>
+        <v>275.8090507951802</v>
       </c>
       <c r="M2" t="n">
-        <v>323.0111825163752</v>
+        <v>306.8907117243425</v>
       </c>
       <c r="N2" t="n">
-        <v>322.0780128856934</v>
+        <v>305.9575420936607</v>
       </c>
       <c r="O2" t="n">
-        <v>309.9456856660335</v>
+        <v>294.4772726718718</v>
       </c>
       <c r="P2" t="n">
-        <v>264.5314718690875</v>
+        <v>251.3295392529531</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.6521186902264</v>
+        <v>188.7380171034837</v>
       </c>
       <c r="R2" t="n">
-        <v>115.5544549841991</v>
+        <v>109.787496075996</v>
       </c>
       <c r="S2" t="n">
-        <v>41.91904392497862</v>
+        <v>39.82699646718419</v>
       </c>
       <c r="T2" t="n">
-        <v>8.052687428704061</v>
+        <v>7.650803161167249</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1471650472407366</v>
+        <v>0.1398205032309262</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.984253025266319</v>
+        <v>0.9351320566912722</v>
       </c>
       <c r="H3" t="n">
-        <v>9.505812112440502</v>
+        <v>9.031406968570971</v>
       </c>
       <c r="I3" t="n">
-        <v>33.88765898395002</v>
+        <v>32.19643265362495</v>
       </c>
       <c r="J3" t="n">
-        <v>92.99032639149904</v>
+        <v>88.34947207538025</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>174.5829003017955</v>
+        <v>203.042598537287</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7989832111208</v>
+        <v>218.678512419088</v>
       </c>
       <c r="N3" t="n">
-        <v>224.0066613724358</v>
+        <v>172.2549432683453</v>
       </c>
       <c r="O3" t="n">
-        <v>234.1788327264123</v>
+        <v>219.1407229415142</v>
       </c>
       <c r="P3" t="n">
-        <v>187.9491588335307</v>
+        <v>178.569208264143</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6390352953989</v>
+        <v>119.3687867453631</v>
       </c>
       <c r="R3" t="n">
-        <v>61.11002555118428</v>
+        <v>58.06021664263884</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2820682543985</v>
+        <v>17.36966780740147</v>
       </c>
       <c r="T3" t="n">
-        <v>3.967230395700644</v>
+        <v>3.769238421488065</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06475348850436312</v>
+        <v>0.06152184583495214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8251646731812825</v>
+        <v>0.7839833032082422</v>
       </c>
       <c r="H4" t="n">
-        <v>7.336464094284499</v>
+        <v>6.970324277615104</v>
       </c>
       <c r="I4" t="n">
-        <v>24.81495217166985</v>
+        <v>23.57651606375333</v>
       </c>
       <c r="J4" t="n">
-        <v>58.33914239391667</v>
+        <v>55.42761953682272</v>
       </c>
       <c r="K4" t="n">
-        <v>95.86913202960717</v>
+        <v>91.08460559092121</v>
       </c>
       <c r="L4" t="n">
-        <v>122.67948241097</v>
+        <v>116.5569358242509</v>
       </c>
       <c r="M4" t="n">
-        <v>129.3483132696805</v>
+        <v>122.8929463383611</v>
       </c>
       <c r="N4" t="n">
-        <v>126.2726994878231</v>
+        <v>119.9708267536759</v>
       </c>
       <c r="O4" t="n">
-        <v>116.6332758056599</v>
+        <v>110.8124763480159</v>
       </c>
       <c r="P4" t="n">
-        <v>99.79991647276162</v>
+        <v>94.81921696256772</v>
       </c>
       <c r="Q4" t="n">
-        <v>69.09628913338904</v>
+        <v>65.64791096228291</v>
       </c>
       <c r="R4" t="n">
-        <v>37.10240430504202</v>
+        <v>35.25074016061786</v>
       </c>
       <c r="S4" t="n">
-        <v>14.38036980444107</v>
+        <v>13.66269083863818</v>
       </c>
       <c r="T4" t="n">
-        <v>3.525703603592752</v>
+        <v>3.34974684098067</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04500898217352455</v>
+        <v>0.04276272562954053</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.843479836803776</v>
+        <v>1.914033170647243</v>
       </c>
       <c r="H5" t="n">
-        <v>18.87953787866667</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I5" t="n">
-        <v>71.07075640837763</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J5" t="n">
-        <v>156.4630467989246</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K5" t="n">
-        <v>234.4975482908285</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L5" t="n">
-        <v>290.9149443464121</v>
+        <v>302.0487895769151</v>
       </c>
       <c r="M5" t="n">
-        <v>323.6989288941712</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N5" t="n">
-        <v>323.100863260137</v>
+        <v>341.5257237215145</v>
       </c>
       <c r="O5" t="n">
-        <v>310.6056133532724</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P5" t="n">
-        <v>265.0947048821791</v>
+        <v>275.2403624805371</v>
       </c>
       <c r="Q5" t="n">
-        <v>199.0750832266439</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R5" t="n">
-        <v>115.8004902986253</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S5" t="n">
-        <v>42.00829678116608</v>
+        <v>43.6160308761241</v>
       </c>
       <c r="T5" t="n">
-        <v>8.069832985608532</v>
+        <v>8.378680204508312</v>
       </c>
       <c r="U5" t="n">
-        <v>0.147478386944302</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9863486692860964</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H6" t="n">
-        <v>9.526051621789406</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I6" t="n">
-        <v>33.95981163989411</v>
+        <v>35.25951553687021</v>
       </c>
       <c r="J6" t="n">
-        <v>93.1883187942623</v>
+        <v>96.75480562798997</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L6" t="n">
-        <v>214.1631178640711</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M6" t="n">
-        <v>197.347206368206</v>
+        <v>254.2466940469419</v>
       </c>
       <c r="N6" t="n">
-        <v>225.0295117468794</v>
+        <v>243.4543722082569</v>
       </c>
       <c r="O6" t="n">
-        <v>234.67743974896</v>
+        <v>243.6589731628787</v>
       </c>
       <c r="P6" t="n">
-        <v>188.3493349270968</v>
+        <v>141.274108769757</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9065424162393</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R6" t="n">
-        <v>61.24013930883327</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S6" t="n">
-        <v>18.32099392292375</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T6" t="n">
-        <v>3.975677311727729</v>
+        <v>4.127833729730408</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06489135982145373</v>
+        <v>0.06737487045261825</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8269215907302188</v>
+        <v>0.858569387407135</v>
       </c>
       <c r="H7" t="n">
-        <v>7.352084688492314</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I7" t="n">
-        <v>24.86778747395968</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J7" t="n">
-        <v>58.46335646462646</v>
+        <v>60.70085568968444</v>
       </c>
       <c r="K7" t="n">
-        <v>96.07325390483813</v>
+        <v>99.75015246421074</v>
       </c>
       <c r="L7" t="n">
-        <v>122.9406881345636</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M7" t="n">
-        <v>129.6237180814651</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N7" t="n">
-        <v>126.5415557887435</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O7" t="n">
-        <v>116.8816081152132</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P7" t="n">
-        <v>100.0124076643166</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.24340702014587</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R7" t="n">
-        <v>37.18140170683328</v>
+        <v>38.60440172832444</v>
       </c>
       <c r="S7" t="n">
-        <v>14.41098808572572</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T7" t="n">
-        <v>3.533210433120025</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04510481403983017</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.022578405825269</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.71373109865804</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>77.97545399057874</v>
+        <v>79.01583489435116</v>
       </c>
       <c r="J8" t="n">
-        <v>171.6638139714126</v>
+        <v>173.9542238989543</v>
       </c>
       <c r="K8" t="n">
-        <v>257.2795578899962</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L8" t="n">
-        <v>319.1780417772713</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>355.1470705018665</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
-        <v>360.8937213974176</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>340.7817073744925</v>
+        <v>345.3285584995942</v>
       </c>
       <c r="P8" t="n">
-        <v>290.8493029806812</v>
+        <v>294.7299352208368</v>
       </c>
       <c r="Q8" t="n">
-        <v>218.4157138220637</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>127.0507907849217</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>46.08950542274336</v>
+        <v>46.70445075299986</v>
       </c>
       <c r="T8" t="n">
-        <v>8.853836971500119</v>
+        <v>8.971968542896622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1618062724660215</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.082174851758304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H9" t="n">
-        <v>10.45153080513941</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>37.25909029080126</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2417915865159</v>
+        <v>103.6059440484809</v>
       </c>
       <c r="K9" t="n">
-        <v>174.7475066543223</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9695878784861</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>274.1984262547246</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>225.5844686175282</v>
+        <v>276.0168687543755</v>
       </c>
       <c r="O9" t="n">
-        <v>257.4769262426873</v>
+        <v>260.9122903671113</v>
       </c>
       <c r="P9" t="n">
-        <v>206.6479328765484</v>
+        <v>169.3276174917067</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.1386705507618</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>67.18976842759015</v>
+        <v>68.08624223342912</v>
       </c>
       <c r="S9" t="n">
-        <v>20.1009232333176</v>
+        <v>20.36911810247047</v>
       </c>
       <c r="T9" t="n">
-        <v>4.361924073534565</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07119571393146738</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.907259043104819</v>
+        <v>0.9193640701987955</v>
       </c>
       <c r="H10" t="n">
-        <v>8.066357674150124</v>
+        <v>8.17398236958566</v>
       </c>
       <c r="I10" t="n">
-        <v>27.28375376900674</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>64.14321434751069</v>
+        <v>64.99903976305484</v>
       </c>
       <c r="K10" t="n">
-        <v>105.4070051898144</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>136.68436367301</v>
       </c>
       <c r="M10" t="n">
-        <v>142.2169789114217</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N10" t="n">
-        <v>138.8353770234857</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O10" t="n">
-        <v>128.2369418381248</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P10" t="n">
-        <v>109.7288573587864</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.97057314580444</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>40.79366570178576</v>
+        <v>41.33795173821129</v>
       </c>
       <c r="S10" t="n">
-        <v>15.81105077847216</v>
+        <v>16.02200838700991</v>
       </c>
       <c r="T10" t="n">
-        <v>3.876470456902407</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04948685689662654</v>
+        <v>0.05014713110175254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508276</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958414</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I11" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J11" t="n">
-        <v>291.2869367409258</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258712</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M11" t="n">
-        <v>602.629639093478</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839009</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O11" t="n">
-        <v>578.2538401190905</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.6176784928396</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T11" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I12" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913578</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616799</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O12" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T12" t="n">
-        <v>7.401510384057845</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017476</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J13" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099893</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978876</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419854</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.432002671508276</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H14" t="n">
-        <v>35.14799735958414</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I14" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J14" t="n">
-        <v>291.2869367409258</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K14" t="n">
-        <v>436.5636098258712</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L14" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M14" t="n">
-        <v>602.629639093478</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N14" t="n">
-        <v>612.3808166839009</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O14" t="n">
-        <v>578.2538401190905</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P14" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6176784928396</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S14" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T14" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U14" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H15" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I15" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J15" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K15" t="n">
-        <v>296.5194861913578</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L15" t="n">
-        <v>398.7070419616799</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M15" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N15" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O15" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P15" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q15" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R15" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S15" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T15" t="n">
-        <v>7.401510384057845</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H16" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I16" t="n">
-        <v>46.29630948017476</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J16" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K16" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L16" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M16" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N16" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O16" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P16" t="n">
-        <v>186.1928964099893</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R16" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S16" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T16" t="n">
-        <v>6.577770693978876</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08397154077419854</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H17" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I17" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J17" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K17" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L17" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M17" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N17" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O17" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P17" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T17" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U17" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H18" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I18" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J18" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K18" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L18" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M18" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730383</v>
       </c>
       <c r="N18" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O18" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P18" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q18" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R18" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S18" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T18" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H19" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I19" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J19" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K19" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L19" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M19" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N19" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O19" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P19" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R19" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S19" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T19" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H20" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I20" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J20" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K20" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L20" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M20" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N20" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O20" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P20" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T20" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U20" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I21" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J21" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K21" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L21" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M21" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730383</v>
       </c>
       <c r="N21" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O21" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P21" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q21" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R21" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S21" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T21" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H22" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I22" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J22" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K22" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L22" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M22" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N22" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O22" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P22" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R22" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S22" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T22" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13.90947242938029</v>
+        <v>2.231303178281308</v>
       </c>
       <c r="L2" t="n">
-        <v>54.53043743554485</v>
+        <v>40.04263582519292</v>
       </c>
       <c r="M2" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="N2" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="O2" t="n">
-        <v>79.84747424434678</v>
+        <v>64.37906125018506</v>
       </c>
       <c r="P2" t="n">
-        <v>33.29847611381791</v>
+        <v>20.09654349768354</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>36.02852052192134</v>
+        <v>64.4882187574128</v>
       </c>
       <c r="M3" t="n">
-        <v>92.66494928910245</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="N3" t="n">
-        <v>92.66494928910245</v>
+        <v>40.91323118501202</v>
       </c>
       <c r="O3" t="n">
-        <v>91.58258828196784</v>
+        <v>76.54447849706972</v>
       </c>
       <c r="P3" t="n">
-        <v>53.97475141920046</v>
+        <v>44.5948008498128</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.40769724584791</v>
+        <v>23.38234588573894</v>
       </c>
       <c r="L5" t="n">
-        <v>55.14852937642485</v>
+        <v>66.28237460692787</v>
       </c>
       <c r="M5" t="n">
-        <v>93.35269566689848</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N5" t="n">
-        <v>93.68779966354607</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O5" t="n">
-        <v>80.50740193158569</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P5" t="n">
-        <v>33.8617091269096</v>
+        <v>44.00736672526756</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L6" t="n">
-        <v>75.60873808419691</v>
+        <v>83.80515100391688</v>
       </c>
       <c r="M6" t="n">
-        <v>55.21317244618769</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="N6" t="n">
-        <v>93.68779966354607</v>
+        <v>112.1126601249236</v>
       </c>
       <c r="O6" t="n">
-        <v>92.08119530451552</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P6" t="n">
-        <v>54.37492751276656</v>
+        <v>7.299701355426773</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.698987336805999</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.18970684501568</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>83.41162680728411</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
-        <v>124.8008372745938</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N8" t="n">
-        <v>131.4806578008266</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>110.6834959528058</v>
+        <v>115.2303470779075</v>
       </c>
       <c r="P8" t="n">
-        <v>59.61630722541167</v>
+        <v>63.49693946556727</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>36.90606767996326</v>
+        <v>39.23762151646886</v>
       </c>
       <c r="L9" t="n">
-        <v>96.41520809861194</v>
+        <v>99.55026996340837</v>
       </c>
       <c r="M9" t="n">
-        <v>132.0643923327063</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>94.24275653419485</v>
+        <v>144.6751566710423</v>
       </c>
       <c r="O9" t="n">
-        <v>114.8806817982429</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>72.67352546221815</v>
+        <v>35.35321007737646</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.799687391771755</v>
       </c>
       <c r="M10" t="n">
-        <v>3.291194963816679</v>
+        <v>5.188712983647946</v>
       </c>
       <c r="N10" t="n">
-        <v>11.14983255825251</v>
+        <v>13.00223184073349</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M11" t="n">
-        <v>372.2834058662053</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N11" t="n">
-        <v>382.96775308731</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974037</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109603</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183901</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>46.65087734093953</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169988</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818057</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M12" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N12" t="n">
-        <v>346.2449737319511</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440061</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P12" t="n">
-        <v>216.675167233233</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.41818044892909</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>49.84612367850727</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99375335563531</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M13" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N13" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O13" t="n">
-        <v>79.14171420769685</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P13" t="n">
-        <v>48.46489236084165</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K14" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M14" t="n">
-        <v>372.2834058662053</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N14" t="n">
-        <v>382.96775308731</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O14" t="n">
-        <v>348.1556286974037</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P14" t="n">
-        <v>262.2932784109603</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.3119886183901</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.65087734093953</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K15" t="n">
-        <v>158.6780472169988</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L15" t="n">
-        <v>260.1526621818057</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M15" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N15" t="n">
-        <v>346.2449737319511</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O15" t="n">
-        <v>294.3022689440061</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P15" t="n">
-        <v>216.675167233233</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.41818044892909</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>49.84612367850727</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99375335563531</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M16" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N16" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O16" t="n">
-        <v>79.14171420769685</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P16" t="n">
-        <v>48.46489236084165</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K17" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L17" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M17" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N17" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O17" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P17" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K18" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L18" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M18" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N18" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O18" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P18" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892932</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99375335563528</v>
+        <v>93.9937533556355</v>
       </c>
       <c r="M19" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N19" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O19" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769705</v>
       </c>
       <c r="P19" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K20" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L20" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M20" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N20" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O20" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P20" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K21" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L21" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M21" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N21" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O21" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P21" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892932</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99375335563528</v>
+        <v>93.9937533556355</v>
       </c>
       <c r="M22" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N22" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O22" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769705</v>
       </c>
       <c r="P22" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
